--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43563,6 +43563,41 @@
         <v>854200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>763500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43598,6 +43598,41 @@
         <v>763500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>549500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43633,6 +43633,41 @@
         <v>549500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1395000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43668,6 +43668,41 @@
         <v>1395000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>53300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43703,6 +43703,41 @@
         <v>53300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>605300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43738,6 +43738,41 @@
         <v>605300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>465200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43773,6 +43773,41 @@
         <v>465200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>270000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43808,6 +43808,41 @@
         <v>270000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>229000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43843,6 +43843,41 @@
         <v>229000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>5213000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43878,6 +43878,41 @@
         <v>5213000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>355000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43913,6 +43913,41 @@
         <v>355000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>226500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43948,6 +43948,41 @@
         <v>226500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>5061000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43983,6 +43983,76 @@
         <v>5061000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>56402900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44053,6 +44053,76 @@
         <v>56402900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1532500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>727700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44123,6 +44123,41 @@
         <v>727700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>41435300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44158,6 +44158,41 @@
         <v>41435300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>10422200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44193,6 +44193,41 @@
         <v>10422200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>375000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44228,6 +44228,41 @@
         <v>375000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>9240700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44263,6 +44263,76 @@
         <v>9240700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>17008400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2731000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44333,6 +44333,41 @@
         <v>2731000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1588500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44368,6 +44368,41 @@
         <v>1588500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>30591900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2334"/>
+  <dimension ref="A1:I2335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82658,6 +82658,41 @@
         <v>30591900</v>
       </c>
     </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2335" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2335" t="n">
+        <v>4466300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2335"/>
+  <dimension ref="A1:I2336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82693,6 +82693,41 @@
         <v>4466300</v>
       </c>
     </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2336" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2336" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2336" t="n">
+        <v>2915000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2336"/>
+  <dimension ref="A1:I2337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82728,6 +82728,41 @@
         <v>2915000</v>
       </c>
     </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2337" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2337" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2337" t="n">
+        <v>2597000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2337"/>
+  <dimension ref="A1:I2338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82763,6 +82763,41 @@
         <v>2597000</v>
       </c>
     </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2338" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2338" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2338" t="n">
+        <v>101000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2338"/>
+  <dimension ref="A1:I2339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82798,6 +82798,41 @@
         <v>101000</v>
       </c>
     </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2339" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2339" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2339" t="n">
+        <v>1235000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2339"/>
+  <dimension ref="A1:I2340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82833,6 +82833,41 @@
         <v>1235000</v>
       </c>
     </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2340" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2340" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2340" t="n">
+        <v>1030000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2340"/>
+  <dimension ref="A1:I2341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82868,6 +82868,41 @@
         <v>1030000</v>
       </c>
     </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2341" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2341" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2341" t="n">
+        <v>806000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2341"/>
+  <dimension ref="A1:I2342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82903,6 +82903,41 @@
         <v>806000</v>
       </c>
     </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2342" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2342" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2342" t="n">
+        <v>1136300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2342"/>
+  <dimension ref="A1:I2343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82938,6 +82938,41 @@
         <v>1136300</v>
       </c>
     </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2343" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2343" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2343" t="n">
+        <v>260200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2343"/>
+  <dimension ref="A1:I2344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82973,6 +82973,41 @@
         <v>260200</v>
       </c>
     </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2344" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2344" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2344" t="n">
+        <v>10781600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2344"/>
+  <dimension ref="A1:I2345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83008,6 +83008,41 @@
         <v>10781600</v>
       </c>
     </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2345" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2345" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2345" t="n">
+        <v>135067200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2345"/>
+  <dimension ref="A1:I2346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83043,6 +83043,41 @@
         <v>135067200</v>
       </c>
     </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2346" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2346" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2346" t="n">
+        <v>2607600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2346"/>
+  <dimension ref="A1:I2347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83078,6 +83078,41 @@
         <v>2607600</v>
       </c>
     </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2347" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2347" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2347" t="n">
+        <v>8065200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2347"/>
+  <dimension ref="A1:I2348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83113,6 +83113,41 @@
         <v>8065200</v>
       </c>
     </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2348" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2348" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2348" t="n">
+        <v>6873500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2348"/>
+  <dimension ref="A1:I2349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83148,6 +83148,41 @@
         <v>6873500</v>
       </c>
     </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2349" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2349" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2349" t="n">
+        <v>2298800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2917"/>
+  <dimension ref="A1:I2918"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103063,6 +103063,41 @@
         <v>2298800</v>
       </c>
     </row>
+    <row r="2918">
+      <c r="A2918" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2918" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2918" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2918" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2918" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2918" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2918" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2918" t="n">
+        <v>3651000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2918"/>
+  <dimension ref="A1:I2919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103098,6 +103098,41 @@
         <v>3651000</v>
       </c>
     </row>
+    <row r="2919">
+      <c r="A2919" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2919" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2919" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2919" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2919" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2919" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2919" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2919" t="n">
+        <v>4720000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2919"/>
+  <dimension ref="A1:I2920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103133,6 +103133,41 @@
         <v>4720000</v>
       </c>
     </row>
+    <row r="2920">
+      <c r="A2920" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2920" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2920" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2920" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2920" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2920" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2920" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2920" t="n">
+        <v>128277600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2920"/>
+  <dimension ref="A1:I2921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103168,6 +103168,41 @@
         <v>128277600</v>
       </c>
     </row>
+    <row r="2921">
+      <c r="A2921" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2921" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2921" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2921" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2921" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2921" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2921" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2921" t="n">
+        <v>17209300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2921"/>
+  <dimension ref="A1:I2922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103203,6 +103203,41 @@
         <v>17209300</v>
       </c>
     </row>
+    <row r="2922">
+      <c r="A2922" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2922" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2922" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2922" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2922" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2922" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2922" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2922" t="n">
+        <v>1980000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2922"/>
+  <dimension ref="A1:I2923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103238,6 +103238,41 @@
         <v>1980000</v>
       </c>
     </row>
+    <row r="2923">
+      <c r="A2923" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2923" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2923" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2923" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2923" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2923" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2923" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2923" t="n">
+        <v>10521800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2923"/>
+  <dimension ref="A1:I2924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103273,6 +103273,41 @@
         <v>10521800</v>
       </c>
     </row>
+    <row r="2924">
+      <c r="A2924" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2924" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2924" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2924" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2924" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2924" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2924" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2924" t="n">
+        <v>45830200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2924"/>
+  <dimension ref="A1:I2925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103308,6 +103308,41 @@
         <v>45830200</v>
       </c>
     </row>
+    <row r="2925">
+      <c r="A2925" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2925" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2925" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2925" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2925" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2925" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2925" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2925" t="n">
+        <v>6901400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2925"/>
+  <dimension ref="A1:I2926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103343,6 +103343,41 @@
         <v>6901400</v>
       </c>
     </row>
+    <row r="2926">
+      <c r="A2926" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2926" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2926" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2926" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2926" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2926" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2926" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2926" t="n">
+        <v>11084400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2926"/>
+  <dimension ref="A1:I2927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103378,6 +103378,41 @@
         <v>11084400</v>
       </c>
     </row>
+    <row r="2927">
+      <c r="A2927" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2927" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2927" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2927" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2927" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2927" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2927" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2927" t="n">
+        <v>2897100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2927"/>
+  <dimension ref="A1:I2929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103413,6 +103413,76 @@
         <v>2897100</v>
       </c>
     </row>
+    <row r="2928">
+      <c r="A2928" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2928" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2928" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2928" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2928" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2928" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2928" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2928" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2928" t="n">
+        <v>5859200</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2929" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2929" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2929" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2929" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2929" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2929" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2929" t="n">
+        <v>4749100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2929"/>
+  <dimension ref="A1:I2930"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103483,6 +103483,41 @@
         <v>4749100</v>
       </c>
     </row>
+    <row r="2930">
+      <c r="A2930" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2930" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2930" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2930" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2930" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2930" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2930" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2930" t="n">
+        <v>331500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2930"/>
+  <dimension ref="A1:I2933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103518,6 +103518,111 @@
         <v>331500</v>
       </c>
     </row>
+    <row r="2931">
+      <c r="A2931" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2931" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2931" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2931" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2931" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2931" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2931" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2931" t="n">
+        <v>906200</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2932" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2932" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2932" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2932" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2932" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2932" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2932" t="n">
+        <v>1146000</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2933" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2933" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2933" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2933" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2933" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2933" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2933" t="n">
+        <v>8805800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2933"/>
+  <dimension ref="A1:I2934"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103623,6 +103623,41 @@
         <v>8805800</v>
       </c>
     </row>
+    <row r="2934">
+      <c r="A2934" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2934" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2934" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2934" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2934" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2934" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2934" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2934" t="n">
+        <v>5447500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2934"/>
+  <dimension ref="A1:I2935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103658,6 +103658,41 @@
         <v>5447500</v>
       </c>
     </row>
+    <row r="2935">
+      <c r="A2935" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2935" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2935" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2935" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2935" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2935" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2935" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2935" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2935" t="n">
+        <v>14463300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0085.xlsx
+++ b/data/0085.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2935"/>
+  <dimension ref="A1:I2938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103693,6 +103693,111 @@
         <v>14463300</v>
       </c>
     </row>
+    <row r="2936">
+      <c r="A2936" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2936" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2936" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2936" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2936" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2936" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2936" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2936" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2936" t="n">
+        <v>41419200</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2937" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2937" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2937" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2937" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2937" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2937" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2937" t="n">
+        <v>9483100</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2938" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2938" t="inlineStr">
+        <is>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="D2938" t="inlineStr">
+        <is>
+          <t>MLAB</t>
+        </is>
+      </c>
+      <c r="E2938" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2938" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2938" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2938" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2938" t="n">
+        <v>14590000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
